--- a/Results/Results_MackeyGlass.xlsx
+++ b/Results/Results_MackeyGlass.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02054338147751273</v>
+        <v>0.01987698815834519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08006908986974019</v>
+        <v>0.07747178101776631</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009854225483024158</v>
+        <v>0.009604327749957774</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>max\_depth: 16, max\_features: 10 \\</t>
+          <t>max\_depth: 16, max\_features: 4 \\</t>
         </is>
       </c>
     </row>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01063827514672657</v>
+        <v>0.01002701242761721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0414633301588967</v>
+        <v>0.03908089620351484</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006662376650246582</v>
+        <v>0.006632192080453148</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>max\_depth: 20, max\_features: 8, n\_estimators: 150 \\</t>
+          <t>max\_depth: 16, max\_features: 8, n\_estimators: 200 \\</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
         <v>0.2723161587022619</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06243720571138976</v>
+        <v>0.06243720571138975</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09982541133853637</v>
+        <v>0.0998254113003442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3890756660727107</v>
+        <v>0.3890756659238543</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08762964483094703</v>
+        <v>0.08762964479374162</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -616,17 +616,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GB \cite{friedman2001greedy}</t>
+          <t>GBM \cite{friedman2001greedy}</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.008697641111123313</v>
+        <v>0.009690697544606516</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03389958992601042</v>
+        <v>0.03777008831038435</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005263240763016518</v>
+        <v>0.005494791757575131</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.05, max\_depth: 12, max\_features: 2, n\_estimators: 150 \\</t>
+          <t>learning\_rate: 0.05, max\_depth: 20, max\_features: 2, n\_estimators: 200 \\</t>
         </is>
       </c>
     </row>
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0453935864761056</v>
+        <v>0.04617939703653087</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1769242886836165</v>
+        <v>0.1799870335609462</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03146921814081583</v>
+        <v>0.03244929935914024</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02209980687583806</v>
+        <v>0.02283476574078957</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08613535336343384</v>
+        <v>0.08899990063734688</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01712061982517699</v>
+        <v>0.01819140053886059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01871946447399991</v>
+        <v>0.01709613338723205</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07296026143129286</v>
+        <v>0.06663322891149877</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01432149070187369</v>
+        <v>0.01262624834438492</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01236761152033588</v>
+        <v>0.0131910578530774</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04820352478873907</v>
+        <v>0.05141295739803758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.009766804283308683</v>
+        <v>0.009526480523523931</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01278554932292877</v>
+        <v>0.0192742790299282</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04983246301939998</v>
+        <v>0.07512268520696433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01018748741887861</v>
+        <v>0.01487175495059627</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01695131826915462</v>
+        <v>0.0209119019797498</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06606880310280064</v>
+        <v>0.08150542113997246</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01355982527641366</v>
+        <v>0.01700731925401119</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -881,22 +881,20 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09082348924641477</v>
+        <v>0.09971232019375161</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3539901223522934</v>
+        <v>0.3886348863965334</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07705699869186271</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6]</t>
-        </is>
+        <v>0.0874389428291678</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>omega: 10000, r: 0.1 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -906,26 +904,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Simpl\\_eTS \cite{angelov2005simpl_ets}</t>
+          <t>Simpl\_eTS \cite{angelov2005simpl_ets}</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.09269666837443143</v>
+        <v>0.09971232019375161</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3612909529437645</v>
+        <v>0.3886348863965334</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07888049799966838</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 89, 89, 89, 89, 89, 89, 89, 89, 89, 89, 89, 1, 1, 2, 3, 4, 5, 5, 5, 6, 7, 8, 8, 8, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 3, 4, 4, 4, 4, 4, 4, 4, 5, 6, 6, 6, 6, 6, 6, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 21, 21, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 24, 25, 26, 27, 28, 29, 29, 30, 31, 32, 33, 33, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 39, 39, 39, 39, 10, 10, 10, 10, 10, 10, 10, 10, 10, 11, 12, 13, 13, 13, 13, 13, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 11, 11, 12, 13, 14, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 21, 21, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13, 13]</t>
-        </is>
+        <v>0.0874389428291678</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>omega: 1000, r: 0.1 \\</t>
+          <t>omega: 50, r: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -939,22 +935,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08789392903263624</v>
+        <v>0.08970967132845216</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3425719816585321</v>
+        <v>0.3496489486721231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07304670422506204</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7]</t>
-        </is>
+        <v>0.07612164068576284</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 1000 \\</t>
+          <t>mu: 0.5, omega: 1000 \\</t>
         </is>
       </c>
     </row>
@@ -968,22 +962,20 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.09778692077118602</v>
+        <v>0.09703642017414169</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3811305240027716</v>
+        <v>0.3782054018743716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08505936984894097</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+        <v>0.08355445192516217</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.2, lambda1: 0.1, r: 0.25, s: 10000 \\</t>
+          <t>alpha: 0.001, beta: 0.2, lambda1: 0.001, omega: 10000, sigma: 0.25 \\</t>
         </is>
       </c>
     </row>
@@ -997,22 +989,20 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01278867358471389</v>
+        <v>0.03886467419850697</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04984464002141512</v>
+        <v>0.1514774524615017</v>
       </c>
       <c r="E20" t="n">
-        <v>0.009847716161940419</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 30, 31, 32, 33, 34, 35, 35, 36, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 84, 85, 85, 86, 86, 87, 87, 87, 88, 88, 89, 89, 89, 90, 90, 91, 91, 92, 92, 93, 93, 94, 94, 95, 95, 96, 96, 97, 97, 98, 98, 99, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 110, 111, 112, 113, 114, 114, 115, 115, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 141, 142, 142, 142, 142, 143, 143, 143, 144, 144, 144, 145, 145, 146, 146, 147, 147, 147, 148, 148, 149, 149, 150, 150, 151, 151, 152, 152, 153, 153, 154, 154, 155, 156, 157, 157, 157, 158, 158, 159, 159, 159, 159, 159, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 160, 161, 161, 162, 162, 163, 164, 165, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 179, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 180, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 181, 182, 182, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 183, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 184, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 185, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186, 186]</t>
-        </is>
+        <v>0.03471813511043065</v>
+      </c>
+      <c r="F20" t="n">
+        <v>74</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.003, w: 50 \\</t>
         </is>
       </c>
     </row>
@@ -1026,22 +1016,20 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.09134074921003001</v>
+        <v>0.09959557561220603</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3560061748000397</v>
+        <v>0.3881798672264027</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07835615206738317</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 8, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 6, 6, 6, 6, 6, 6, 6]</t>
-        </is>
+        <v>0.08732713427523939</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.1, e\_utility: 0.05, lambda1: 0.75, omega: 100, pi: 0.5, sigma: 0.1 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1043,20 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.003408222879965368</v>
+        <v>0.005907353391721347</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01328375780641406</v>
+        <v>0.0230242723249726</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002155219055877396</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 2, 2, 2, 2, 2, 2, 2, 2, 2, 3, 3, 3, 3, 3, 3, 3, 3, 3, 3, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 5, 6, 6, 6, 6, 6, 6, 6, 6, 6, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 7, 8, 8, 8, 8, 8, 9, 9, 9, 9, 9, 9, 9, 10, 10, 10, 10, 10, 10, 10, 10, 10, 11, 11, 11, 11, 11, 11, 12, 12, 12, 12, 12, 12, 13, 13, 13, 13, 14, 14, 14, 14, 14, 14, 14, 14, 14, 14, 15, 15, 15, 15, 15, 15, 15, 15, 16, 16, 16, 16, 17, 17, 17, 17, 17, 18, 18, 18, 18, 18, 18, 18, 19, 19, 19, 19, 19, 19, 19, 19, 20, 20, 20, 20, 21, 21, 21, 21, 21, 21, 22, 22, 22, 22, 22, 22, 22, 23, 23, 23, 23, 23, 24, 24, 24, 24, 25, 25, 25, 25, 26, 26, 26, 26, 26, 27, 27, 27, 27, 27, 27, 28, 28, 28, 28, 28, 29, 29, 29, 29, 29, 30, 30, 30, 30, 31, 31, 31, 31, 32, 32, 32, 32, 32, 32, 32, 32, 32, 32, 33, 33, 33, 33, 33, 34, 34, 34, 34, 35, 35, 35, 35, 35, 36, 36, 36, 36, 36, 36, 36, 37, 36, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 34, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33, 33]</t>
-        </is>
+        <v>0.00384480535989134</v>
+      </c>
+      <c r="F22" t="n">
+        <v>26</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>alpha: 0.1, beta: 0.01, e\_utility: 0.03, lambda1: 1e-07, sigma: 0.5 \\</t>
+          <t>alpha: 0.1, beta: 0.1, e\_utility: 0.03, lambda1: 1e-07, sigma: 0.5 \\</t>
         </is>
       </c>
     </row>
@@ -1084,20 +1070,20 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.09856796772842036</v>
+        <v>0.1009652268874646</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3841747024443655</v>
+        <v>0.3935181671148084</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08280195038647963</v>
+        <v>0.08516756904634615</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>fuzzy\_operator: prod, rules: 10 \\</t>
+          <t>fuzzy\_operator: prod, rules: 16 \\</t>
         </is>
       </c>
     </row>
@@ -1111,13 +1097,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.09954540422897747</v>
+        <v>0.09954526595210997</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3879843211817062</v>
+        <v>0.3879837822391304</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08515097130431434</v>
+        <v>0.08515069302675088</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1138,20 +1124,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09026188276417745</v>
+        <v>0.09096224060842921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3518012266270735</v>
+        <v>0.3545309142996582</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07901485294251105</v>
+        <v>0.07995993584213755</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 18 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 17 \\</t>
         </is>
       </c>
     </row>
@@ -1165,20 +1151,20 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.09944470866847055</v>
+        <v>0.1022941964254241</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3875918540558566</v>
+        <v>0.3986979074358216</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08505704618945796</v>
+        <v>0.08748953164459831</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>error\_metric: CPPM, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 9, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: MAE, fuzzy\_operator: minmax, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 13, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
     </row>
@@ -1192,20 +1178,20 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1214081143086218</v>
+        <v>0.1068393136437876</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4731955752334935</v>
+        <v>0.4164127806870441</v>
       </c>
       <c r="E27" t="n">
-        <v>0.105432916412854</v>
+        <v>0.0866251704022159</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1219,20 +1205,20 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.09032267542126364</v>
+        <v>0.09096224060842921</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3520381697383613</v>
+        <v>0.3545309142996582</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07905060199097523</v>
+        <v>0.07995993584213755</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 18 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: MAE, fuzzy\_operator: prod, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 17, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
     </row>
@@ -1246,13 +1232,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1030738462748794</v>
+        <v>0.1048791579970679</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4017366405641186</v>
+        <v>0.408772953776967</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08704600520456129</v>
+        <v>0.08916767565294725</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1275,13 +1261,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.09679176872774797</v>
+        <v>0.09741149189363492</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3772518578500101</v>
+        <v>0.3796672669158486</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08499523439986589</v>
+        <v>0.08524810957110011</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1304,13 +1290,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01566377505050188</v>
+        <v>0.01482123194899861</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0610505244032434</v>
+        <v>0.05776666096590034</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01280432093204631</v>
+        <v>0.0122677759938756</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
